--- a/report/result.xlsx
+++ b/report/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -71,13 +71,16 @@
     <t>200</t>
   </si>
   <si>
+    <t>0.214285</t>
+  </si>
+  <si>
     <t>"reson":"success"</t>
   </si>
   <si>
-    <t>0.168647</t>
-  </si>
-  <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>0.036266</t>
   </si>
 </sst>
 </file>
@@ -479,11 +482,11 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s"/>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>

--- a/report/result.xlsx
+++ b/report/result.xlsx
@@ -71,7 +71,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.214285</t>
+    <t>1.171984</t>
   </si>
   <si>
     <t>"reson":"success"</t>
@@ -80,7 +80,7 @@
     <t>fail</t>
   </si>
   <si>
-    <t>0.036266</t>
+    <t>0.043446</t>
   </si>
 </sst>
 </file>
